--- a/sorteddata2.xlsx
+++ b/sorteddata2.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Undefined Samples_A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Others_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contaminated Samples_A" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common Positives" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concordance" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common Negatives" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pos_R_Neg_A" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,12 +446,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RAMJA</t>
+          <t>AIIMS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS</t>
+          <t>cleanAIIMS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Klebsiella pneumoniae</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pseudomonas aeruginosa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Acinetobacter baumannii</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Proteus mirabilis</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Staphylococcus aureus</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Staphylococcus saprophyticus</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -460,13 +531,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>E.coli &amp; Klebsiella pneumonia</t>
+          <t>Candida spp.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Candida spp.</t>
-        </is>
+          <t>CANDIDA SPP</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +588,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A. baumannii, P.mirabilis, E. Faecalis</t>
+          <t>Insignificant growth</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Insignificant growth</t>
-        </is>
+          <t>INSIGNIFICANT GROWTH</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -490,13 +645,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P.Aurogenosa</t>
+          <t>Acintobacter spp.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Acintobacter spp.</t>
-        </is>
+          <t>ACINTOBACTER SPP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +702,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Commensal Flora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Commensal Flora</t>
-        </is>
+          <t>COMMENSAL FLORA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -520,13 +759,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Insignificant growth of colonizer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Insignificant growth of colonizer</t>
-        </is>
+          <t>INSIGNIFICANT GROWTH OF COLONIZER</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +816,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S.Aureus ,Saprohutics, and Mirababilis</t>
+          <t>Insignificant growth gram positive cocci</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Insignificant growth gram positive cocci</t>
-        </is>
+          <t>INSIGNIFICANT GROWTH GRAM POSITIVE COCCI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -550,13 +873,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>E. coli and A.Baumini</t>
+          <t>Insignificant Gram negative bacilli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Insignificant Gram negative bacilli</t>
-        </is>
+          <t>INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +930,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A. baumanni, P mirabilis, S saprophyticus</t>
+          <t>Candida spp. and Insignificant gram negative bacilli</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Candida spp. and Insignificant gram negative bacilli</t>
-        </is>
+          <t>CANDIDA SPP , INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -580,13 +987,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S.Saprophytics</t>
+          <t>Insignificant gram negative bacilli</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Insignificant gram negative bacilli</t>
-        </is>
+          <t>INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,12 +1065,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>RAMJA</t>
+          <t>AIIMS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS</t>
+          <t>cleanAIIMS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Klebsiella pneumoniae</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pseudomonas aeruginosa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Acinetobacter baumannii</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Proteus mirabilis</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Staphylococcus aureus</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Staphylococcus saprophyticus</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -631,13 +1150,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P. mirabilis</t>
+          <t>CONTAMINATION</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>CONTAMINATION</t>
         </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -646,13 +1207,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K. Pne, Pseudomonas, P.mirabilis</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -661,13 +1264,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E. Coli</t>
+          <t>contamination</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -676,13 +1321,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -691,13 +1378,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>E.coli, A. baumannii, P.mirabilis, E. Faecalis, S.aureus</t>
+          <t>contamination</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -706,13 +1435,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E.Fecalis and S.Aureus</t>
+          <t>contamination</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -721,13 +1492,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -736,13 +1549,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -751,13 +1606,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>contamination</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -766,13 +1663,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A. baumannii</t>
+          <t>contamination</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -781,13 +1720,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E.Coli</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -796,13 +1777,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>E.coli</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -811,13 +1834,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +1891,55 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E.coli</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -841,13 +1948,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -856,24 +2005,112 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Contamination</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>20220046569</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2592,4 +3829,875 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UHID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RAMJA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AIIMS</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>concordance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Positive_A</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Negative_A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Positive_R</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Negative_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20180022685</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>P. mirabilis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20240016829</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>E.Faecalis, S. aureus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20230179067</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>E. Coli, K. Pne, P.mirabilis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20180188108</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>K. Pne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20230141608</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>K. Pne, Pseudomonas, P.mirabilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20240020494</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>K. Pne, and P.mirabilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20240001249</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>E.coli, K. Pne, E.faecalis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20210094336</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>E.coli, K. Pne, A. baumannii, P.mirabilis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20240020436</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>E. Coli and Pseudomonas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20240022523</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20220064259</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>20240012256</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20240024158</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20220064546</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20240028100</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>K. Pne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20220083756</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>K. Pne</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>20240030258</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>E.coli, A. baumannii, P.mirabilis, E. Faecalis, S.aureus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20240037502</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>E.Fecalis and S.Aureus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20190007174</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>E.coli and K. Pne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20180142185</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>E.Coli, psedomomass, A. baumannii, E. Faecalis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20240048215</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A. baumannii</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20240051976</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20240071058</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>E.Coli</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20240078762</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A. Baumannii</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20240088127</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20240039512</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>E. faecalis</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20240099770</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>